--- a/gantt-chart_V2.xlsx
+++ b/gantt-chart_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinokontschieder/Desktop/UNI/Master Digital Engineering/Modulgruppe B/B2 (Singnals and Systems)/Embedded Systems/Labor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636A43D5-32C0-8048-8C96-11FF55F15E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F7E48C-0398-674F-9D08-502582F5A320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16940" xr2:uid="{F25FED68-4AE0-5E42-9936-0F210330F6C2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F25FED68-4AE0-5E42-9936-0F210330F6C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>Task</t>
   </si>
@@ -143,15 +143,6 @@
     <t>Implementation moisture sensor and light resistor  finished</t>
   </si>
   <si>
-    <t>Implementation of water level detection sensor and cloud</t>
-  </si>
-  <si>
-    <t>Implementation of moisture sensor and light resistor</t>
-  </si>
-  <si>
-    <t>Implementation of waterpump and temperature sensor</t>
-  </si>
-  <si>
     <t>Implementation of water level detection sensor and cloud progamming finished</t>
   </si>
   <si>
@@ -164,7 +155,19 @@
     <t>Updating presentation after recived feedback</t>
   </si>
   <si>
-    <t>Shravya and Carlos</t>
+    <t>Carlos and Shravya</t>
+  </si>
+  <si>
+    <t>Setting up cloud basic functionality</t>
+  </si>
+  <si>
+    <t>Water level detection sensor (programming and cloud implementation)</t>
+  </si>
+  <si>
+    <t>Moisture sensor and light resistor (programming and cloud implementation)</t>
+  </si>
+  <si>
+    <t>Waterpump and temperature sensor (programming and cloud implementation)</t>
   </si>
 </sst>
 </file>
@@ -215,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -446,11 +449,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -485,11 +503,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -518,14 +539,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,16 +569,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>803248</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>80136</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>505408</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>93095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>401735</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>181429</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>207347</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -572,8 +593,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14682534" y="6391258"/>
-          <a:ext cx="3745425" cy="101293"/>
+          <a:off x="16211939" y="6818911"/>
+          <a:ext cx="2384490" cy="114252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -868,15 +889,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>286197</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>41509</xdr:rowOff>
+      <xdr:colOff>363952</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>54468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>451476</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>211438</xdr:rowOff>
+      <xdr:colOff>529231</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>224397</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -891,7 +912,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11792180" y="3949201"/>
+          <a:off x="15241095" y="4991917"/>
           <a:ext cx="165279" cy="169929"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -932,13 +953,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>286612</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>53552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>451891</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>223481</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -995,13 +1016,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>293817</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>37685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>459096</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>207614</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1063,9 +1084,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>480541</xdr:colOff>
+      <xdr:colOff>272143</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>180046</xdr:rowOff>
+      <xdr:rowOff>194388</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1080,8 +1101,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13040382" y="2967982"/>
-          <a:ext cx="457659" cy="120364"/>
+          <a:off x="13072780" y="3027335"/>
+          <a:ext cx="249261" cy="134706"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1122,15 +1143,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>125128</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>23543</xdr:rowOff>
+      <xdr:colOff>449107</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>204971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>290407</xdr:colOff>
+      <xdr:colOff>614386</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>193472</xdr:rowOff>
+      <xdr:rowOff>167553</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1145,7 +1166,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13205543" y="228382"/>
+          <a:off x="16985025" y="204971"/>
           <a:ext cx="165279" cy="169929"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -1250,15 +1271,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>510169</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>89771</xdr:rowOff>
+      <xdr:colOff>803469</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>77757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>25917</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>207347</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>207346</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>194389</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1273,8 +1294,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13560067" y="3575791"/>
-          <a:ext cx="3662687" cy="117576"/>
+          <a:off x="13853367" y="3978471"/>
+          <a:ext cx="233265" cy="116632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1315,15 +1336,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>501162</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:colOff>786260</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>63112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38877</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>181427</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>518363</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>220306</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1338,8 +1359,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13551060" y="4067500"/>
-          <a:ext cx="3684654" cy="118315"/>
+          <a:off x="13836158" y="4482194"/>
+          <a:ext cx="561491" cy="157194"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1510,14 +1531,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>502086</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>657594</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>74962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>669505</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>825012</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>244891</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1533,8 +1554,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16040147" y="4338533"/>
-          <a:ext cx="167419" cy="169929"/>
+          <a:off x="16364125" y="4753227"/>
+          <a:ext cx="167418" cy="169929"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1574,13 +1595,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>759829</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>32565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>100150</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>202494</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1637,13 +1658,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>759830</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>43421</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>100151</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>213350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1700,13 +1721,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>759829</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>54275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>100150</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>224204</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1763,13 +1784,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>18829</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>43418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>170794</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>224201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1825,14 +1846,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>523737</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>769959</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>73489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>25917</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>518365</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>194388</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1848,8 +1869,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13573635" y="3818693"/>
-          <a:ext cx="3649119" cy="120899"/>
+          <a:off x="13819857" y="4233387"/>
+          <a:ext cx="577794" cy="120899"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1896,9 +1917,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>595709</xdr:colOff>
+      <xdr:colOff>401735</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>206206</xdr:rowOff>
+      <xdr:rowOff>220306</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1913,8 +1934,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15632050" y="2971800"/>
-          <a:ext cx="457659" cy="142706"/>
+          <a:off x="15676111" y="3290337"/>
+          <a:ext cx="263685" cy="156806"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2021,13 +2042,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>220306</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>189513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>699796</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>362856</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2045,6 +2066,266 @@
         <a:xfrm>
           <a:off x="15758367" y="5736044"/>
           <a:ext cx="479490" cy="173343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>204232</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>74645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>751628</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>207347</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rechteck 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8AB7D82-7106-7A4F-9238-8A702AA5F64A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16740150" y="3975359"/>
+          <a:ext cx="547396" cy="132702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>204230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>74646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>761474</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>204237</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rechteck 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20207016-CA15-C64E-934D-9DB42F53161B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16740148" y="4234544"/>
+          <a:ext cx="557244" cy="129591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>217190</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>87604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>774434</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>217195</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rechteck 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C245ED05-26A7-0E43-A1A7-E95D93A13AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16753108" y="4506686"/>
+          <a:ext cx="557244" cy="129591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>764591</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>155511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>492447</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>285102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rechteck 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23468BB1-5217-2649-87B3-901553CDF38F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13814489" y="3641531"/>
+          <a:ext cx="557244" cy="129591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2382,37 +2663,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFFD7FBA-B7D8-FB42-A908-F4663BD51FD7}">
-  <dimension ref="F3:R27"/>
+  <dimension ref="F3:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="98" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="98" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="5.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.83203125" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="6:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="30"/>
     </row>
     <row r="5" spans="6:18" x14ac:dyDescent="0.2">
       <c r="F5" s="1" t="s">
@@ -2421,75 +2702,75 @@
       <c r="G5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="27"/>
     </row>
     <row r="6" spans="6:18" x14ac:dyDescent="0.2">
       <c r="F6" s="17"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22" t="s">
+      <c r="I6" s="23"/>
+      <c r="J6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22" t="s">
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="30"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="31"/>
     </row>
     <row r="7" spans="6:18" x14ac:dyDescent="0.2">
       <c r="F7" s="19"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="R7" s="34" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2628,7 +2909,7 @@
     </row>
     <row r="15" spans="6:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F15" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>23</v>
@@ -2645,12 +2926,12 @@
       <c r="Q15" s="15"/>
       <c r="R15" s="16"/>
     </row>
-    <row r="16" spans="6:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>28</v>
+    <row r="16" spans="6:18" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>39</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -2666,10 +2947,10 @@
     </row>
     <row r="17" spans="6:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F17" s="13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
@@ -2685,10 +2966,10 @@
     </row>
     <row r="18" spans="6:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
@@ -2703,27 +2984,27 @@
       <c r="R18" s="16"/>
     </row>
     <row r="19" spans="6:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="12"/>
+      <c r="F19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="16"/>
     </row>
     <row r="20" spans="6:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F20" s="8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>24</v>
@@ -2742,10 +3023,10 @@
     </row>
     <row r="21" spans="6:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F21" s="8" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="11"/>
@@ -2759,12 +3040,12 @@
       <c r="Q21" s="11"/>
       <c r="R21" s="12"/>
     </row>
-    <row r="22" spans="6:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F22" s="31" t="s">
-        <v>34</v>
+    <row r="22" spans="6:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="11"/>
@@ -2778,12 +3059,12 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="12"/>
     </row>
-    <row r="23" spans="6:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F23" s="8" t="s">
-        <v>38</v>
+    <row r="23" spans="6:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="11"/>
@@ -2797,12 +3078,12 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="12"/>
     </row>
-    <row r="24" spans="6:18" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F24" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>42</v>
+    <row r="24" spans="6:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="11"/>
@@ -2816,12 +3097,12 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="12"/>
     </row>
-    <row r="25" spans="6:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>24</v>
+    <row r="25" spans="6:18" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="11"/>
@@ -2837,7 +3118,7 @@
     </row>
     <row r="26" spans="6:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>24</v>
@@ -2854,24 +3135,43 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="6:18" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="3" t="s">
+    <row r="27" spans="6:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="12"/>
+    </row>
+    <row r="28" spans="6:18" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="7"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
